--- a/_temp_/결과지/노인정신건강종합검진기록지.xlsx
+++ b/_temp_/결과지/노인정신건강종합검진기록지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\광역정~1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\mentalhealth\_temp_\결과지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9BA8F7-8869-46C7-BC63-BB5107AFED27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331F27D-8A43-4367-9314-0CFF32346197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="900" windowWidth="24300" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="결과지" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">결과지!$A:$M</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>우울</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,10 +178,6 @@
       </rPr>
       <t xml:space="preserve">                                </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의 : 경주시정신건강복지센터(☎ 054-000-0000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -553,6 +557,136 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>문의 : 관리자  (☎ )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우위험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">불안을 알아보는 검사로 점수가 높을수록 불안정도가 심한 것을 의미합니다._x000D_
+어르신의 검사결과는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매우 위험한 수준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입니다._x000D_
+불안감이 지속되면 감정, 생각 등에도 영향을 미쳐 일상생활 전반에 어려움을 초래할 수 있습니다._x000D_
+꼭 보건소(정신건강복지센터)의 전문가에게 도움을 요청하여 상담 및 치료를 받으시기 바랍니다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1956-02-16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">우울증을 알아보는 검사로 점수가 높을수록 우울정도가 심한 것을 의미합니다._x000D_
+어르신의 검사결과는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매우 위험한 수준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입니다._x000D_
+현재 심각한 우울감과 더불어 불안, 불면, 자살사고와 같은 정신건강문제가 동반되고 있을 것으로 예상됩니다._x000D_
+우울증은 혼자만의 의지로 이겨내기 힘들며, 하나의 질병으로 반드시 정신건강 전문가의 도움을 받으셔야 합니다._x000D_
+꼭 보건소(정신건강복지센터)의 전문가에게 도움을 요청하여 상담 및 치료를 받으시기 바랍니다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">자살위험성을 알아보는 검사로 점수가 높을수록 자살위험정도가 심각한 것을 의미합니다._x000D_
+어르신의 검사결과는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입니다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -561,7 +695,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000\-000"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,6 +1005,26 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1763,7 +1917,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1783,7 +1937,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,7 +2075,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:srgbClr val="0000FF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1959,7 +2113,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2083,9 +2237,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="4.6294010866610641E-2"/>
+          <c:y val="6.3736888586116758E-2"/>
           <c:w val="1"/>
-          <c:h val="0.94788838447430657"/>
+          <c:h val="0.93044512537650037"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2097,7 +2251,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2112,7 +2266,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,7 +4009,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -3892,8 +4046,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -4156,8 +4310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="58227" y="9980084"/>
-          <a:ext cx="6901418" cy="8829885"/>
+          <a:off x="54417" y="9241488"/>
+          <a:ext cx="6949859" cy="8236886"/>
           <a:chOff x="33506" y="9621032"/>
           <a:chExt cx="6961653" cy="9265149"/>
         </a:xfrm>
@@ -11210,29 +11364,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:L14"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.8984375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" style="15" customWidth="1"/>
-    <col min="4" max="5" width="1.19921875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="1.3984375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="15" customWidth="1"/>
+    <col min="4" max="5" width="1.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="1.375" style="16" customWidth="1"/>
     <col min="11" max="11" width="11" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.19921875" style="16" customWidth="1"/>
-    <col min="13" max="13" width="1.19921875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="16" customWidth="1"/>
+    <col min="13" max="13" width="1.25" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.2" customHeight="1">
+    <row r="1" spans="1:13" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="68" t="s">
         <v>23</v>
       </c>
@@ -11251,7 +11405,7 @@
       <c r="L1" s="74"/>
       <c r="M1" s="75"/>
     </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1">
+    <row r="2" spans="1:13" ht="14.45" customHeight="1">
       <c r="A2" s="70"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -11270,22 +11424,26 @@
       <c r="L2" s="78"/>
       <c r="M2" s="79"/>
     </row>
-    <row r="3" spans="1:13" ht="34.200000000000003" customHeight="1">
+    <row r="3" spans="1:13" ht="34.15" customHeight="1">
       <c r="A3" s="70"/>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="80" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="80"/>
       <c r="I3" s="80"/>
       <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
+      <c r="K3" s="82" t="s">
+        <v>39</v>
+      </c>
       <c r="L3" s="83"/>
       <c r="M3" s="84"/>
     </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1">
       <c r="A4" s="70"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -11306,29 +11464,35 @@
       <c r="L4" s="78"/>
       <c r="M4" s="79"/>
     </row>
-    <row r="5" spans="1:13" ht="35.4" customHeight="1" thickBot="1">
+    <row r="5" spans="1:13" ht="35.450000000000003" customHeight="1" thickBot="1">
       <c r="A5" s="72"/>
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
-      <c r="G5" s="88"/>
+      <c r="G5" s="88" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="88"/>
-      <c r="I5" s="86"/>
+      <c r="I5" s="86" t="s">
+        <v>35</v>
+      </c>
       <c r="J5" s="87"/>
-      <c r="K5" s="89"/>
+      <c r="K5" s="89" t="s">
+        <v>41</v>
+      </c>
       <c r="L5" s="90"/>
       <c r="M5" s="91"/>
     </row>
     <row r="6" spans="1:13" ht="12.6" customHeight="1"/>
-    <row r="7" spans="1:13" ht="36" customHeight="1"/>
-    <row r="8" spans="1:13" ht="10.199999999999999" customHeight="1" thickBot="1">
+    <row r="7" spans="1:13" ht="5.25" customHeight="1"/>
+    <row r="8" spans="1:13" ht="10.15" customHeight="1" thickBot="1">
       <c r="B8" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="65">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -11342,7 +11506,9 @@
       <c r="C9" s="65"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="52"/>
+      <c r="F9" s="52" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
@@ -11353,7 +11519,9 @@
     </row>
     <row r="10" spans="1:13" ht="14.1" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="66"/>
+      <c r="B10" s="66" t="s">
+        <v>36</v>
+      </c>
       <c r="C10" s="66"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
@@ -11366,7 +11534,7 @@
       <c r="L10" s="53"/>
       <c r="M10" s="25"/>
     </row>
-    <row r="11" spans="1:13" ht="13.8" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="13.9" customHeight="1" thickBot="1">
       <c r="A11" s="22"/>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -11381,7 +11549,7 @@
       <c r="L11" s="53"/>
       <c r="M11" s="25"/>
     </row>
-    <row r="12" spans="1:13" ht="18.3" customHeight="1">
+    <row r="12" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="57"/>
       <c r="C12" s="58"/>
@@ -11396,7 +11564,7 @@
       <c r="L12" s="53"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:13" ht="18.3" customHeight="1" thickBot="1">
+    <row r="13" spans="1:13" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="22"/>
       <c r="B13" s="59"/>
       <c r="C13" s="60"/>
@@ -11411,7 +11579,7 @@
       <c r="L13" s="53"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="28.15" customHeight="1" thickBot="1">
       <c r="A14" s="27"/>
       <c r="B14" s="28">
         <v>0</v>
@@ -11446,13 +11614,13 @@
       <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="9" customHeight="1"/>
-    <row r="17" spans="1:13" ht="10.199999999999999" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" ht="10.15" customHeight="1" thickBot="1">
       <c r="A17" s="17"/>
       <c r="B17" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="55">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -11463,7 +11631,9 @@
       <c r="C18" s="55"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="62"/>
+      <c r="F18" s="62" t="s">
+        <v>37</v>
+      </c>
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
       <c r="I18" s="62"/>
@@ -11474,7 +11644,9 @@
     </row>
     <row r="19" spans="1:13" ht="14.1" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="66"/>
+      <c r="B19" s="66" t="s">
+        <v>36</v>
+      </c>
       <c r="C19" s="66"/>
       <c r="D19" s="33"/>
       <c r="E19" s="24"/>
@@ -11532,7 +11704,7 @@
       <c r="L22" s="63"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+    <row r="23" spans="1:13" ht="28.15" customHeight="1" thickBot="1">
       <c r="A23" s="27"/>
       <c r="B23" s="34">
         <v>0</v>
@@ -11567,13 +11739,13 @@
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13" ht="9" customHeight="1"/>
-    <row r="26" spans="1:13" ht="10.199999999999999" customHeight="1" thickBot="1">
+    <row r="26" spans="1:13" ht="10.15" customHeight="1" thickBot="1">
       <c r="A26" s="17"/>
       <c r="B26" s="56" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -11586,7 +11758,9 @@
       <c r="C27" s="61"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="52"/>
+      <c r="F27" s="52" t="s">
+        <v>44</v>
+      </c>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
@@ -11597,7 +11771,9 @@
     </row>
     <row r="28" spans="1:13" ht="14.1" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="66"/>
+      <c r="B28" s="66" t="s">
+        <v>43</v>
+      </c>
       <c r="C28" s="66"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -11625,7 +11801,7 @@
       <c r="L29" s="53"/>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:13" ht="16.95" customHeight="1">
+    <row r="30" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="57"/>
       <c r="C30" s="58"/>
@@ -11640,7 +11816,7 @@
       <c r="L30" s="53"/>
       <c r="M30" s="25"/>
     </row>
-    <row r="31" spans="1:13" ht="16.95" customHeight="1" thickBot="1">
+    <row r="31" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A31" s="22"/>
       <c r="B31" s="59"/>
       <c r="C31" s="60"/>
@@ -11655,7 +11831,7 @@
       <c r="L31" s="53"/>
       <c r="M31" s="25"/>
     </row>
-    <row r="32" spans="1:13" ht="28.2" customHeight="1" thickBot="1">
+    <row r="32" spans="1:13" ht="28.15" customHeight="1" thickBot="1">
       <c r="A32" s="27"/>
       <c r="B32" s="34">
         <v>0</v>
@@ -11678,7 +11854,7 @@
     <row r="34" spans="1:13" ht="12" customHeight="1"/>
     <row r="35" spans="1:13" ht="48" customHeight="1">
       <c r="A35" s="50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
@@ -11693,9 +11869,9 @@
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
     </row>
-    <row r="36" spans="1:13" ht="43.2" customHeight="1">
+    <row r="36" spans="1:13" ht="43.15" customHeight="1">
       <c r="A36" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -11710,7 +11886,7 @@
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
     </row>
-    <row r="37" spans="1:13" ht="28.2" customHeight="1">
+    <row r="37" spans="1:13" ht="13.5" customHeight="1">
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -11726,7 +11902,7 @@
     </row>
     <row r="38" spans="1:13" ht="36" customHeight="1">
       <c r="A38" s="51" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -12311,6 +12487,7 @@
       <c r="L76" s="49"/>
       <c r="M76" s="49"/>
     </row>
+    <row r="77" spans="1:13" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
     <mergeCell ref="B19:C20"/>
@@ -12400,11 +12577,11 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="71.3984375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="71.375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" ht="33" customHeight="1">
@@ -12422,7 +12599,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="91.5" customHeight="1">
@@ -12431,7 +12608,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="69.75" customHeight="1">
@@ -12440,7 +12617,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="80.25" customHeight="1">
@@ -12449,7 +12626,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1">
@@ -12460,19 +12637,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.95" customHeight="1">
+    <row r="7" spans="1:3" ht="52.9" customHeight="1">
       <c r="A7" s="96"/>
       <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.95" customHeight="1">
+    <row r="8" spans="1:3" ht="28.9" customHeight="1">
       <c r="A8" s="93" t="s">
         <v>11</v>
       </c>
@@ -12480,7 +12657,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72.599999999999994" customHeight="1">
@@ -12489,7 +12666,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -12513,7 +12690,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="100" t="s">
@@ -12537,7 +12714,7 @@
       </c>
       <c r="C2" s="42">
         <f>결과지!$C$8/A2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11"/>
       <c r="F2" s="97" t="s">
@@ -12559,7 +12736,7 @@
       </c>
       <c r="C3" s="42">
         <f>결과지!$C$17/A3</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D3" s="11"/>
       <c r="F3" s="98"/>
@@ -12579,7 +12756,7 @@
       </c>
       <c r="C4" s="42">
         <f>결과지!$C$26/A4</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D4" s="11"/>
       <c r="F4" s="98"/>
